--- a/data_year/zb/人民生活/农村居民人均收入情况.xlsx
+++ b/data_year/zb/人民生活/农村居民人均收入情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,850 +498,546 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697</v>
+        <v>2278</v>
       </c>
       <c r="C2" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6272.4439289</v>
+      </c>
+      <c r="E2" t="n">
         <v>11.4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2282</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.5</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>1453</v>
+        <v>2978</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7</v>
+        <v>12.6</v>
       </c>
       <c r="J2" t="n">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="K2" t="n">
-        <v>38.9</v>
+        <v>17.9</v>
       </c>
       <c r="L2" t="n">
-        <v>91</v>
+        <v>873</v>
       </c>
       <c r="M2" t="n">
-        <v>-18.2</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>764</v>
+        <v>2734</v>
       </c>
       <c r="C3" t="n">
-        <v>9.6</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>2407</v>
+        <v>7393.9151579</v>
       </c>
       <c r="E3" t="n">
-        <v>4.7</v>
+        <v>11.4</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>1494</v>
+        <v>3367</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8</v>
+        <v>13.1</v>
       </c>
       <c r="J3" t="n">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>106</v>
+        <v>1136</v>
       </c>
       <c r="M3" t="n">
-        <v>17.3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>829</v>
+        <v>3123</v>
       </c>
       <c r="C4" t="n">
-        <v>8.5</v>
+        <v>14.2</v>
       </c>
       <c r="D4" t="n">
-        <v>2529</v>
+        <v>8389.2840165</v>
       </c>
       <c r="E4" t="n">
-        <v>5.3</v>
+        <v>10.7</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>1530</v>
+        <v>3660</v>
       </c>
       <c r="I4" t="n">
-        <v>2.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="K4" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>125</v>
+        <v>1441</v>
       </c>
       <c r="M4" t="n">
-        <v>17.5</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>905</v>
+        <v>3653</v>
       </c>
       <c r="C5" t="n">
-        <v>9.199999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="D5" t="n">
-        <v>2690</v>
+        <v>9429.56318500564</v>
       </c>
       <c r="E5" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8428</v>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>1599</v>
+        <v>3935</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="J5" t="n">
-        <v>57</v>
+        <v>195</v>
       </c>
       <c r="K5" t="n">
-        <v>26.6</v>
+        <v>18</v>
       </c>
       <c r="L5" t="n">
-        <v>129</v>
+        <v>1648</v>
       </c>
       <c r="M5" t="n">
-        <v>3.4</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>980</v>
+        <v>4152</v>
       </c>
       <c r="C6" t="n">
-        <v>8.300000000000001</v>
+        <v>13.7</v>
       </c>
       <c r="D6" t="n">
-        <v>3027</v>
+        <v>10488.8825864097</v>
       </c>
       <c r="E6" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+        <v>9.199999999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9497</v>
+      </c>
+      <c r="G6" t="n">
+        <v>12.7</v>
+      </c>
       <c r="H6" t="n">
-        <v>1820</v>
+        <v>4237</v>
       </c>
       <c r="I6" t="n">
-        <v>13.8</v>
+        <v>7.7</v>
       </c>
       <c r="J6" t="n">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="K6" t="n">
-        <v>13.6</v>
+        <v>14.1</v>
       </c>
       <c r="L6" t="n">
-        <v>163</v>
+        <v>1877</v>
       </c>
       <c r="M6" t="n">
-        <v>25.8</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1147</v>
+        <v>4600.3067594977</v>
       </c>
       <c r="C7" t="n">
-        <v>17.1</v>
+        <v>10.8</v>
       </c>
       <c r="D7" t="n">
-        <v>3370</v>
+        <v>11421.7066175059</v>
       </c>
       <c r="E7" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+        <v>7.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10291</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8.4</v>
+      </c>
       <c r="H7" t="n">
-        <v>1931</v>
+        <v>4503.5754256255</v>
       </c>
       <c r="I7" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="J7" t="n">
-        <v>73</v>
+        <v>251.5277294352</v>
       </c>
       <c r="K7" t="n">
-        <v>12.6</v>
+        <v>13.3</v>
       </c>
       <c r="L7" t="n">
-        <v>219</v>
+        <v>2066.2967029475</v>
       </c>
       <c r="M7" t="n">
-        <v>35</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1336</v>
+        <v>5021.845949</v>
       </c>
       <c r="C8" t="n">
-        <v>16.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>3731</v>
+        <v>12363.409296</v>
       </c>
       <c r="E8" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+        <v>6.2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>11149</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8.300000000000001</v>
+      </c>
       <c r="H8" t="n">
-        <v>2030</v>
+        <v>4741.284935</v>
       </c>
       <c r="I8" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J8" t="n">
-        <v>81</v>
+        <v>272.050838</v>
       </c>
       <c r="K8" t="n">
-        <v>10.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L8" t="n">
-        <v>284</v>
+        <v>2328.227575</v>
       </c>
       <c r="M8" t="n">
-        <v>29.4</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1543</v>
+        <v>5498.4184372872</v>
       </c>
       <c r="C9" t="n">
-        <v>15.5</v>
+        <v>9.5</v>
       </c>
       <c r="D9" t="n">
-        <v>4327</v>
+        <v>13432.4257076746</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+        <v>7.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11969</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.4</v>
+      </c>
       <c r="H9" t="n">
-        <v>2315</v>
+        <v>5027.8153628998</v>
       </c>
       <c r="I9" t="n">
-        <v>14.1</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>302.9640570382</v>
       </c>
       <c r="K9" t="n">
-        <v>24</v>
+        <v>11.4</v>
       </c>
       <c r="L9" t="n">
-        <v>368</v>
+        <v>2603.2278504494</v>
       </c>
       <c r="M9" t="n">
-        <v>29.7</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1766</v>
+        <v>5996.0827734828</v>
       </c>
       <c r="C10" t="n">
-        <v>14.4</v>
+        <v>9.1</v>
       </c>
       <c r="D10" t="n">
-        <v>4999</v>
+        <v>14617.0302584015</v>
       </c>
       <c r="E10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>13066</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9.199999999999999</v>
+      </c>
       <c r="H10" t="n">
-        <v>2556</v>
+        <v>5358.4362419253</v>
       </c>
       <c r="I10" t="n">
-        <v>10.4</v>
+        <v>6.6</v>
       </c>
       <c r="J10" t="n">
-        <v>112</v>
+        <v>342.0560428257</v>
       </c>
       <c r="K10" t="n">
-        <v>11.5</v>
+        <v>12.9</v>
       </c>
       <c r="L10" t="n">
-        <v>565</v>
+        <v>2920.4552001676</v>
       </c>
       <c r="M10" t="n">
-        <v>53.5</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1940</v>
+        <v>6583.4825531065</v>
       </c>
       <c r="C11" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>5435</v>
+        <v>16020.6676028608</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+        <v>6.2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>14389</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10.1</v>
+      </c>
       <c r="H11" t="n">
-        <v>2643</v>
+        <v>5762.1826908922</v>
       </c>
       <c r="I11" t="n">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="J11" t="n">
-        <v>122</v>
+        <v>377.2513762203</v>
       </c>
       <c r="K11" t="n">
-        <v>9.4</v>
+        <v>10.3</v>
       </c>
       <c r="L11" t="n">
-        <v>729</v>
+        <v>3297.7509826419</v>
       </c>
       <c r="M11" t="n">
-        <v>29</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2278</v>
+        <v>6973.94412846127</v>
       </c>
       <c r="C12" t="n">
-        <v>17.4</v>
+        <v>5.9</v>
       </c>
       <c r="D12" t="n">
-        <v>6272</v>
+        <v>17131.4710961737</v>
       </c>
       <c r="E12" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+        <v>3.8</v>
+      </c>
+      <c r="F12" t="n">
+        <v>15204</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5.7</v>
+      </c>
       <c r="H12" t="n">
-        <v>2978</v>
+        <v>6077.42488725653</v>
       </c>
       <c r="I12" t="n">
-        <v>12.6</v>
+        <v>5.5</v>
       </c>
       <c r="J12" t="n">
-        <v>144</v>
+        <v>418.754356138388</v>
       </c>
       <c r="K12" t="n">
-        <v>17.9</v>
+        <v>11</v>
       </c>
       <c r="L12" t="n">
-        <v>873</v>
+        <v>3661.34772431755</v>
       </c>
       <c r="M12" t="n">
-        <v>19.7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2734</v>
+        <v>7958.1</v>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>14.1124714137319</v>
       </c>
       <c r="D13" t="n">
-        <v>7394</v>
+        <v>18930.9</v>
       </c>
       <c r="E13" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>16902</v>
+      </c>
+      <c r="G13" t="n">
+        <v>11.2</v>
+      </c>
       <c r="H13" t="n">
-        <v>3367</v>
+        <v>6566.2</v>
       </c>
       <c r="I13" t="n">
-        <v>13.1</v>
+        <v>8.041647931647031</v>
       </c>
       <c r="J13" t="n">
-        <v>157</v>
+        <v>469.4</v>
       </c>
       <c r="K13" t="n">
-        <v>9.199999999999999</v>
+        <v>12.0919682671619</v>
       </c>
       <c r="L13" t="n">
-        <v>1136</v>
+        <v>3937.2</v>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>7.53444623274258</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3123</v>
+        <v>8449.184310765369</v>
       </c>
       <c r="C14" t="n">
-        <v>14.2</v>
+        <v>6.17034018960925</v>
       </c>
       <c r="D14" t="n">
-        <v>8389</v>
+        <v>20132.8255053029</v>
       </c>
       <c r="E14" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+        <v>4.21568627450979</v>
+      </c>
+      <c r="F14" t="n">
+        <v>17733.75</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4.92078177040838</v>
+      </c>
       <c r="H14" t="n">
-        <v>3660</v>
+        <v>6971.52268988839</v>
       </c>
       <c r="I14" t="n">
-        <v>8.699999999999999</v>
+        <v>6.17367391680659</v>
       </c>
       <c r="J14" t="n">
-        <v>165</v>
+        <v>509.001818657091</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>8.43899926651423</v>
       </c>
       <c r="L14" t="n">
-        <v>1441</v>
+        <v>4203.11668599201</v>
       </c>
       <c r="M14" t="n">
-        <v>26.9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3653</v>
-      </c>
-      <c r="C15" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="D15" t="n">
-        <v>9430</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="F15" t="n">
-        <v>8428</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>3935</v>
-      </c>
-      <c r="I15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>195</v>
-      </c>
-      <c r="K15" t="n">
-        <v>18</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1648</v>
-      </c>
-      <c r="M15" t="n">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4152</v>
-      </c>
-      <c r="C16" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="D16" t="n">
-        <v>10489</v>
-      </c>
-      <c r="E16" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="F16" t="n">
-        <v>9497</v>
-      </c>
-      <c r="G16" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4237</v>
-      </c>
-      <c r="I16" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="J16" t="n">
-        <v>222</v>
-      </c>
-      <c r="K16" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1877</v>
-      </c>
-      <c r="M16" t="n">
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4600</v>
-      </c>
-      <c r="C17" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D17" t="n">
-        <v>11422</v>
-      </c>
-      <c r="E17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="F17" t="n">
-        <v>10291</v>
-      </c>
-      <c r="G17" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4504</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2066</v>
-      </c>
-      <c r="M17" t="n">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>5022</v>
-      </c>
-      <c r="C18" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="D18" t="n">
-        <v>12363</v>
-      </c>
-      <c r="E18" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="F18" t="n">
-        <v>11149</v>
-      </c>
-      <c r="G18" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>4741</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>272</v>
-      </c>
-      <c r="K18" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2328</v>
-      </c>
-      <c r="M18" t="n">
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>5498</v>
-      </c>
-      <c r="C19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="D19" t="n">
-        <v>13432</v>
-      </c>
-      <c r="E19" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>11969</v>
-      </c>
-      <c r="G19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="H19" t="n">
-        <v>5028</v>
-      </c>
-      <c r="I19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J19" t="n">
-        <v>303</v>
-      </c>
-      <c r="K19" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2603</v>
-      </c>
-      <c r="M19" t="n">
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>5996</v>
-      </c>
-      <c r="C20" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>14617</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F20" t="n">
-        <v>13066</v>
-      </c>
-      <c r="G20" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>5358</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>342</v>
-      </c>
-      <c r="K20" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2920</v>
-      </c>
-      <c r="M20" t="n">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>6583</v>
-      </c>
-      <c r="C21" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="D21" t="n">
-        <v>16021</v>
-      </c>
-      <c r="E21" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="F21" t="n">
-        <v>14389</v>
-      </c>
-      <c r="G21" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>5762</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>377</v>
-      </c>
-      <c r="K21" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3298</v>
-      </c>
-      <c r="M21" t="n">
-        <v>12.9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>6974</v>
-      </c>
-      <c r="C22" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="D22" t="n">
-        <v>17131</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="F22" t="n">
-        <v>15204</v>
-      </c>
-      <c r="G22" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H22" t="n">
-        <v>6077</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>419</v>
-      </c>
-      <c r="K22" t="n">
-        <v>11</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3661</v>
-      </c>
-      <c r="M22" t="n">
-        <v>11</v>
+        <v>6.75368309010724</v>
       </c>
     </row>
   </sheetData>
